--- a/benchmarking/data/TEB/ee_path_smoothness.xlsx
+++ b/benchmarking/data/TEB/ee_path_smoothness.xlsx
@@ -2,38 +2,61 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new_maze" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="office" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="playground" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="warehouse" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="playground" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="warehouse" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="office" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -56,18 +79,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -77,22 +92,48 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -449,694 +490,700 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>datatype</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>17.53828148510685</v>
-      </c>
-      <c r="C2" t="n">
-        <v>18.89984815941786</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6286872365033774</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B2" s="5" t="n">
+        <v>17.5382814851069</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>18.8998481594179</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.628687236503377</v>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>16.70882428369469</v>
-      </c>
-      <c r="C3" t="n">
-        <v>19.12221974418673</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6181068100682183</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B3" s="5" t="n">
+        <v>16.7088242836947</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>19.1222197441867</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.618106810068218</v>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>16.47138091445679</v>
-      </c>
-      <c r="C4" t="n">
-        <v>18.40380521711658</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6148119138829395</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B4" s="5" t="n">
+        <v>16.4713809144568</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>18.4038052171166</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.61481191388294</v>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="A5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>16.62938004162021</v>
-      </c>
-      <c r="C5" t="n">
-        <v>18.72947585461516</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6131762934531816</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B5" s="5" t="n">
+        <v>16.6293800416202</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>18.7294758546152</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.613176293453182</v>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>16.42882578818394</v>
-      </c>
-      <c r="C6" t="n">
-        <v>18.63490715094795</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6175760217455035</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B6" s="5" t="n">
+        <v>16.4288257881839</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>18.634907150948</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.617576021745504</v>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="3">
+      <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>16.93040389739744</v>
-      </c>
-      <c r="C7" t="n">
-        <v>19.04932829108126</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="B7" s="5" t="n">
+        <v>16.9304038973974</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>19.0493282910813</v>
+      </c>
+      <c r="D7" s="5" t="n">
         <v>0.62284848061378</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="3">
+      <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>16.32971920546251</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18.34790582159927</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6061922520782047</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8" s="5" t="n">
+        <v>16.3297192054625</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>18.3479058215993</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.606192252078205</v>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="3">
+      <c r="A9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>16.48960182889835</v>
-      </c>
-      <c r="C9" t="n">
-        <v>18.46373172232143</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.6056802059657613</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9" s="5" t="n">
+        <v>16.4896018288984</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>18.4637317223214</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.605680205965761</v>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="3">
+      <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="5" t="n">
         <v>16.5467971745365</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="5" t="n">
         <v>18.7314076149453</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.6182674658773323</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="D10" s="5" t="n">
+        <v>0.6182674658773319</v>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="3">
+      <c r="A11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>16.67480162437303</v>
-      </c>
-      <c r="C11" t="n">
-        <v>18.70918106402573</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.6161496311320332</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="B11" s="5" t="n">
+        <v>16.674801624373</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>18.7091810640257</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.616149631132033</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>average</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>datatype</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>16.41041196745469</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12.01228755409859</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4908991233468949</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B2" s="5" t="n">
+        <v>6.88411529913835</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>9.332421267269959</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.322479407546611</v>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>15.91167597832901</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11.90851124502967</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4845225879414919</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B3" s="5" t="n">
+        <v>7.06408046359971</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>9.55475915684792</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.329688187512895</v>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>16.17187456549065</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12.2437392270463</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4941283668215518</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B4" s="5" t="n">
+        <v>6.72388699942209</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>9.27984982921965</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.318878477928183</v>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>16.35061041858403</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12.42576290700737</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4970859597818694</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B5" s="5" t="n">
+        <v>6.8622556098693</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>9.427585073588441</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.326162875295145</v>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>16.46444689183547</v>
-      </c>
-      <c r="C6" t="n">
-        <v>12.49119833350616</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5063377908771388</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="B6" s="5" t="n">
+        <v>6.7878199586294</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.31677733466457</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.32246816608052</v>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="3">
+      <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>16.27932894977116</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12.14833666395293</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.4939650907575623</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="B7" s="5" t="n">
+        <v>6.84973770187981</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>9.37067224725264</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.326190121215696</v>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="3">
+      <c r="A8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>22.31321217966767</v>
-      </c>
-      <c r="C8" t="n">
-        <v>19.08075375708502</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.7288050019671922</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="B8" s="5" t="n">
+        <v>6.86883312001883</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>9.392470208398461</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.322557021577283</v>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="3">
+      <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>16.2294292851199</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12.09387674927305</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.4905339754700876</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="B9" s="5" t="n">
+        <v>6.91302236445756</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.37720878829319</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.322648433623334</v>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="3">
+      <c r="A10" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>16.78345708545638</v>
-      </c>
-      <c r="C10" t="n">
-        <v>12.59431402208602</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.506481334164766</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="B10" s="5" t="n">
+        <v>6.81426784052065</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>9.3863270387216</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.322566784267721</v>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="3">
+      <c r="A11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>16.99049414685655</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12.9998644954539</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.5214176923476173</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="B11" s="5" t="n">
+        <v>6.86311326194841</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>9.382007882695159</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.32373771944971</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>average</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="3">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>datatype</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" ht="15" customHeight="1" s="3">
+      <c r="A2" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>6.884115299138347</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.332421267269957</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3224794075466114</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B2" s="5" t="n">
+        <v>4.3079228088859</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>5.73787840889453</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>1.13879541946237</v>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="3">
+      <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>7.064080463599707</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9.554759156847918</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3296881875128946</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B3" s="5" t="n">
+        <v>4.41181310166505</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>5.83745535629691</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>1.1594473725815</v>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="3">
+      <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>6.723886999422089</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.279849829219648</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3188784779281834</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B4" s="5" t="n">
+        <v>4.34066669933769</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>5.8069856576054</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.15931798289045</v>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="3">
+      <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>6.8622556098693</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.427585073588435</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3261628752951446</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B5" s="5" t="n">
+        <v>4.38359128753576</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>5.82600489683629</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.15947691538697</v>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="3">
+      <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>6.787819958629402</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9.316777334664573</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3224681660805196</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="B6" s="5" t="n">
+        <v>4.36423353180389</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.75320962799003</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.15940342606381</v>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="3">
+      <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>6.849737701879811</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.370672247252639</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.3261901212156961</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="B7" s="5" t="n">
+        <v>4.28383510531034</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>5.73972112367633</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.13868035239136</v>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="3">
+      <c r="A8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>6.868833120018832</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9.392470208398459</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.3225570215772834</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="B8" s="5" t="n">
+        <v>4.2733722061899</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>5.76587522973887</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.13869870282517</v>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="3">
+      <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>6.913022364457564</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9.377208788293194</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.3226484336233342</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="B9" s="5" t="n">
+        <v>4.39133404987634</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.81643331079254</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.15941843766671</v>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="3">
+      <c r="A10" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>6.814267840520646</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9.386327038721596</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.3225667842677206</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="B10" s="5" t="n">
+        <v>4.36669965284534</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>5.84854755341943</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.15934187695446</v>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="3">
+      <c r="A11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>6.863113261948412</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.382007882695158</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.3237377194497097</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="B11" s="5" t="n">
+        <v>4.34705204927224</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>5.79245679613893</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.15250894291364</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>average</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -1155,39 +1202,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>datatype</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.307922808885896</v>
+        <v>45.05775126080041</v>
       </c>
       <c r="C2" t="n">
-        <v>5.73787840889453</v>
+        <v>29.70475158756155</v>
       </c>
       <c r="D2" t="n">
-        <v>1.13879541946237</v>
+        <v>0.5099091886155597</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1196,17 +1243,17 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.411813101665054</v>
+        <v>21.97792042715047</v>
       </c>
       <c r="C3" t="n">
-        <v>5.837455356296914</v>
+        <v>15.64190396918099</v>
       </c>
       <c r="D3" t="n">
-        <v>1.159447372581498</v>
+        <v>0.4963404228569457</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1215,17 +1262,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.340666699337685</v>
+        <v>33.14049529585266</v>
       </c>
       <c r="C4" t="n">
-        <v>5.806985657605402</v>
+        <v>22.51469066195357</v>
       </c>
       <c r="D4" t="n">
-        <v>1.159317982890453</v>
+        <v>0.4962693685109919</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1234,17 +1281,17 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.383591287535762</v>
+        <v>33.75844927143844</v>
       </c>
       <c r="C5" t="n">
-        <v>5.826004896836286</v>
+        <v>22.88648627689252</v>
       </c>
       <c r="D5" t="n">
-        <v>1.159476915386974</v>
+        <v>0.5091184940821696</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1253,17 +1300,17 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.364233531803886</v>
+        <v>33.39991232438561</v>
       </c>
       <c r="C6" t="n">
-        <v>5.753209627990031</v>
+        <v>22.53744155173647</v>
       </c>
       <c r="D6" t="n">
-        <v>1.159403426063809</v>
+        <v>0.4997252656022368</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1272,17 +1319,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.283835105310338</v>
+        <v>33.64013981470772</v>
       </c>
       <c r="C7" t="n">
-        <v>5.739721123676333</v>
+        <v>22.89467922325082</v>
       </c>
       <c r="D7" t="n">
-        <v>1.138680352391356</v>
+        <v>0.5091941674818286</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1291,17 +1338,17 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.273372206189898</v>
+        <v>33.4536880639894</v>
       </c>
       <c r="C8" t="n">
-        <v>5.765875229738867</v>
+        <v>22.4647192526037</v>
       </c>
       <c r="D8" t="n">
-        <v>1.138698702825172</v>
+        <v>0.496451788045963</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1310,17 +1357,17 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.391334049876336</v>
+        <v>33.38977905826442</v>
       </c>
       <c r="C9" t="n">
-        <v>5.816433310792537</v>
+        <v>22.49447295870767</v>
       </c>
       <c r="D9" t="n">
-        <v>1.159418437666711</v>
+        <v>0.4994880618363154</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1329,17 +1376,17 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.366699652845338</v>
+        <v>33.7605462312263</v>
       </c>
       <c r="C10" t="n">
-        <v>5.848547553419427</v>
+        <v>22.96405682423379</v>
       </c>
       <c r="D10" t="n">
-        <v>1.159341876954456</v>
+        <v>0.5091702115377623</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1348,17 +1395,17 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.347052049272244</v>
+        <v>33.50874241642393</v>
       </c>
       <c r="C11" t="n">
-        <v>5.792456796138925</v>
+        <v>22.67813358956901</v>
       </c>
       <c r="D11" t="n">
-        <v>1.152508942913644</v>
+        <v>0.5028518853966415</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
